--- a/frns.xlsx
+++ b/frns.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\projects\oussama\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\projects\alihaysina3i\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,16 +32,16 @@
     <t>phone</t>
   </si>
   <si>
-    <t>sold</t>
-  </si>
-  <si>
     <t>copima</t>
   </si>
   <si>
-    <t>sodirep</t>
-  </si>
-  <si>
-    <t>test</t>
+    <t>address</t>
+  </si>
+  <si>
+    <t>ice</t>
+  </si>
+  <si>
+    <t>EJEJEJ</t>
   </si>
 </sst>
 </file>
@@ -77,8 +77,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -359,10 +360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -370,7 +371,7 @@
     <col min="1" max="1" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -378,12 +379,15 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
       </c>
       <c r="B2">
         <v>77777777</v>
@@ -391,27 +395,8 @@
       <c r="C2">
         <v>120</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>99999999</v>
-      </c>
-      <c r="C3">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B4">
-        <v>9900</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
